--- a/data/Hive_Map_Database2.xlsx
+++ b/data/Hive_Map_Database2.xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>1,001</v>
+        <v>1001</v>
       </c>
       <c r="B1" t="str">
         <v>3</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1,002</v>
+        <v>1002</v>
       </c>
       <c r="B2" t="str">
         <v>9</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1,004</v>
+        <v>1004</v>
       </c>
       <c r="B3" t="str">
         <v>8</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1,005</v>
+        <v>1005</v>
       </c>
       <c r="B4" t="str">
         <v>8</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1,006</v>
+        <v>1006</v>
       </c>
       <c r="B5" t="str">
         <v>7</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1,007</v>
+        <v>1007</v>
       </c>
       <c r="B6" t="str">
         <v>7</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1,008</v>
+        <v>1008</v>
       </c>
       <c r="B7" t="str">
         <v>6</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1,009</v>
+        <v>1009</v>
       </c>
       <c r="B8" t="str">
         <v>5</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>1,010</v>
+        <v>1010</v>
       </c>
       <c r="B9" t="str">
         <v>4</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>1,011</v>
+        <v>1011</v>
       </c>
       <c r="B10" t="str">
         <v>2</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1,003</v>
+        <v>1003</v>
       </c>
       <c r="B11" t="str">
         <v>9</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>1,012</v>
+        <v>1012</v>
       </c>
       <c r="B12" t="str">
         <v>20</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>1,013</v>
+        <v>1013</v>
       </c>
       <c r="B13" t="str">
         <v>19</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>1,014</v>
+        <v>1014</v>
       </c>
       <c r="B14" t="str">
         <v>18</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1,015</v>
+        <v>1015</v>
       </c>
       <c r="B15" t="str">
         <v>10</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1,016</v>
+        <v>1016</v>
       </c>
       <c r="B16" t="str">
         <v>12</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>1,017</v>
+        <v>1017</v>
       </c>
       <c r="B17" t="str">
         <v>15</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>1,018</v>
+        <v>1018</v>
       </c>
       <c r="B18" t="str">
         <v>14</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>1,019</v>
+        <v>1019</v>
       </c>
       <c r="B19" t="str">
         <v>16</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>1,020</v>
+        <v>1020</v>
       </c>
       <c r="B20" t="str">
         <v>16</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1,021</v>
+        <v>1021</v>
       </c>
       <c r="B21" t="str">
         <v>13</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>1,022</v>
+        <v>1022</v>
       </c>
       <c r="B22" t="str">
         <v>13</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>1,023</v>
+        <v>1023</v>
       </c>
       <c r="B23" t="str">
         <v>16</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>1,024</v>
+        <v>1024</v>
       </c>
       <c r="B24" t="str">
         <v>21</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>1,025</v>
+        <v>1025</v>
       </c>
       <c r="B25" t="str">
         <v>22</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1,026</v>
+        <v>1026</v>
       </c>
       <c r="B26" t="str">
         <v>23</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>1,027</v>
+        <v>1027</v>
       </c>
       <c r="B27" t="str">
         <v>23</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>1,028</v>
+        <v>1028</v>
       </c>
       <c r="B28" t="str">
         <v>24</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>1,029</v>
+        <v>1029</v>
       </c>
       <c r="B29" t="str">
         <v>25</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>1,030</v>
+        <v>1030</v>
       </c>
       <c r="B30" t="str">
         <v>27</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>1,031</v>
+        <v>1031</v>
       </c>
       <c r="B31" t="str">
         <v>26</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>1,032</v>
+        <v>1032</v>
       </c>
       <c r="B32" t="str">
         <v>28</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>1,033</v>
+        <v>1033</v>
       </c>
       <c r="B33" t="str">
         <v>28</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>1,034</v>
+        <v>1034</v>
       </c>
       <c r="B34" t="str">
         <v>29</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>1,035</v>
+        <v>1035</v>
       </c>
       <c r="B35" t="str">
         <v>30</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>1,036</v>
+        <v>1036</v>
       </c>
       <c r="B36" t="str">
         <v>31</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>1,037</v>
+        <v>1037</v>
       </c>
       <c r="B37" t="str">
         <v>38</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>1,038</v>
+        <v>1038</v>
       </c>
       <c r="B38" t="str">
         <v>33</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>1,039</v>
+        <v>1039</v>
       </c>
       <c r="B39" t="str">
         <v>35</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>1,040</v>
+        <v>1040</v>
       </c>
       <c r="B40" t="str">
         <v>35</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1,041</v>
+        <v>1041</v>
       </c>
       <c r="B41" t="str">
         <v>34</v>
